--- a/temp/pages/StructureDefinition-onc-skintone-observation.xlsx
+++ b/temp/pages/StructureDefinition-onc-skintone-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-28T00:15:25+00:00</t>
+    <t>2025-11-28T01:24:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-onc-skintone-observation.xlsx
+++ b/temp/pages/StructureDefinition-onc-skintone-observation.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$52</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2450" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2031" uniqueCount="451">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-28T01:24:36+00:00</t>
+    <t>2025-12-26T14:13:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Observation of patient skin tone using the Fitzpatrick skin type classification. Supports equitable care by enabling skin tone-aware clinical decision making, particularly for conditions that present differently across skin tones (e.g., pressure ulcers, cyanosis).</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -619,7 +622,7 @@
     <t>http://hl7.org/fhir/ValueSet/observation-category|4.0.1</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:coding.code}
+    <t xml:space="preserve">pattern:$this}
 </t>
   </si>
   <si>
@@ -638,248 +641,12 @@
     <t>nursing</t>
   </si>
   <si>
-    <t>Observation.category:nursing.id</t>
-  </si>
-  <si>
-    <t>Observation.category.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Observation.category:nursing.extension</t>
-  </si>
-  <si>
-    <t>Observation.category.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Observation.category:nursing.coding</t>
-  </si>
-  <si>
-    <t>Observation.category.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>Observation.category:nursing.coding.id</t>
-  </si>
-  <si>
-    <t>Observation.category.coding.id</t>
-  </si>
-  <si>
-    <t>Observation.category:nursing.coding.extension</t>
-  </si>
-  <si>
-    <t>Observation.category.coding.extension</t>
-  </si>
-  <si>
-    <t>Observation.category:nursing.coding.system</t>
-  </si>
-  <si>
-    <t>Observation.category.coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/CodeSystem/observation-category</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>Observation.category:nursing.coding.version</t>
-  </si>
-  <si>
-    <t>Observation.category.coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>Observation.category:nursing.coding.code</t>
-  </si>
-  <si>
-    <t>Observation.category.coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>Observation.category:nursing.coding.display</t>
-  </si>
-  <si>
-    <t>Observation.category.coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>Observation.category:nursing.coding.userSelected</t>
-  </si>
-  <si>
-    <t>Observation.category.coding.userSelected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>Observation.category:nursing.text</t>
-  </si>
-  <si>
-    <t>Observation.category.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/observation-category"/&gt;
+    &lt;code value="survey"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>Observation.code</t>
@@ -904,8 +671,8 @@
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
     &lt;system value="http://loinc.org"/&gt;
-    &lt;code value="66472-2"/&gt;
-    &lt;display value="Fitzpatrick skin type"/&gt;
+    &lt;code value="66555-4"/&gt;
+    &lt;display value="Skin type [Fitzpatrick Classification Scale]"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -1384,7 +1151,29 @@
     <t>Observation.referenceRange.id</t>
   </si>
   <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>Observation.referenceRange.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
   </si>
   <si>
     <t>Observation.referenceRange.modifierExtension</t>
@@ -1888,66 +1677,68 @@
       <c r="A11" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" t="s" s="2">
+        <v>19</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1957,7 +1748,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP63"/>
+  <dimension ref="A1:AP52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1966,7 +1757,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="41.33203125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.10546875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="39.10546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1993,8 +1784,8 @@
     <col min="25" max="25" width="54.2734375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="56.1953125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.80859375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.98046875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="36.046875" customWidth="true" bestFit="true" hidden="true"/>
@@ -2011,149 +1802,149 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>17</v>
@@ -2165,16 +1956,16 @@
         <v>17</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2224,31 +2015,31 @@
         <v>17</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AO2" t="s" s="2">
         <v>17</v>
@@ -2259,10 +2050,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2270,10 +2061,10 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>17</v>
@@ -2282,19 +2073,19 @@
         <v>17</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2344,13 +2135,13 @@
         <v>17</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>17</v>
@@ -2379,10 +2170,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2390,10 +2181,10 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>17</v>
@@ -2402,16 +2193,16 @@
         <v>17</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2462,19 +2253,19 @@
         <v>17</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>17</v>
@@ -2497,10 +2288,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2508,31 +2299,31 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2582,19 +2373,19 @@
         <v>17</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>17</v>
@@ -2617,10 +2408,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2628,10 +2419,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>17</v>
@@ -2643,16 +2434,16 @@
         <v>17</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2678,13 +2469,13 @@
         <v>17</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>17</v>
@@ -2702,19 +2493,19 @@
         <v>17</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>17</v>
@@ -2737,21 +2528,21 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>17</v>
@@ -2763,16 +2554,16 @@
         <v>17</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2822,19 +2613,19 @@
         <v>17</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>17</v>
@@ -2846,7 +2637,7 @@
         <v>17</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AO7" t="s" s="2">
         <v>17</v>
@@ -2857,21 +2648,21 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>17</v>
@@ -2883,16 +2674,16 @@
         <v>17</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2942,13 +2733,13 @@
         <v>17</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>17</v>
@@ -2966,7 +2757,7 @@
         <v>17</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AO8" t="s" s="2">
         <v>17</v>
@@ -2977,21 +2768,21 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>17</v>
@@ -3003,16 +2794,16 @@
         <v>17</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -3062,19 +2853,19 @@
         <v>17</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>17</v>
@@ -3086,7 +2877,7 @@
         <v>17</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AO9" t="s" s="2">
         <v>17</v>
@@ -3097,45 +2888,45 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>17</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>17</v>
@@ -3184,19 +2975,19 @@
         <v>17</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>17</v>
@@ -3208,7 +2999,7 @@
         <v>17</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AO10" t="s" s="2">
         <v>17</v>
@@ -3219,10 +3010,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3230,10 +3021,10 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>17</v>
@@ -3242,20 +3033,20 @@
         <v>17</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>17</v>
@@ -3304,34 +3095,34 @@
         <v>17</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AP11" t="s" s="2">
         <v>17</v>
@@ -3339,21 +3130,21 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>17</v>
@@ -3362,20 +3153,20 @@
         <v>17</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>17</v>
@@ -3424,31 +3215,31 @@
         <v>17</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>17</v>
@@ -3459,21 +3250,21 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>17</v>
@@ -3482,19 +3273,19 @@
         <v>17</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3544,31 +3335,31 @@
         <v>17</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>17</v>
@@ -3579,10 +3370,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3590,34 +3381,34 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>17</v>
@@ -3642,13 +3433,13 @@
         <v>17</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>17</v>
@@ -3666,34 +3457,34 @@
         <v>17</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>17</v>
@@ -3701,10 +3492,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3712,10 +3503,10 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>17</v>
@@ -3727,19 +3518,19 @@
         <v>17</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>17</v>
@@ -3764,41 +3555,41 @@
         <v>17</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AC15" s="2"/>
       <c r="AD15" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>17</v>
@@ -3810,10 +3601,10 @@
         <v>17</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>17</v>
@@ -3821,26 +3612,26 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>17</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>17</v>
@@ -3849,19 +3640,19 @@
         <v>17</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>17</v>
@@ -3871,7 +3662,7 @@
         <v>17</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>17</v>
+        <v>200</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>17</v>
@@ -3886,13 +3677,13 @@
         <v>17</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>17</v>
@@ -3910,19 +3701,19 @@
         <v>17</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>17</v>
@@ -3934,10 +3725,10 @@
         <v>17</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>17</v>
@@ -3945,21 +3736,21 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>17</v>
+        <v>202</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>17</v>
@@ -3968,19 +3759,23 @@
         <v>17</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="P17" t="s" s="2">
         <v>17</v>
       </c>
@@ -3989,7 +3784,7 @@
         <v>17</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>17</v>
+        <v>207</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>17</v>
@@ -4004,13 +3799,13 @@
         <v>17</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>17</v>
+        <v>208</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>17</v>
+        <v>209</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>17</v>
+        <v>210</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>17</v>
@@ -4028,56 +3823,56 @@
         <v>17</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>17</v>
+        <v>211</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>17</v>
+        <v>212</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>17</v>
+        <v>213</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>17</v>
+        <v>215</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>17</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>133</v>
+        <v>17</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>17</v>
@@ -4086,21 +3881,23 @@
         <v>17</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>134</v>
+        <v>218</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>135</v>
+        <v>219</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O18" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="P18" t="s" s="2">
         <v>17</v>
       </c>
@@ -4136,46 +3933,46 @@
         <v>17</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>209</v>
+        <v>17</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>210</v>
+        <v>17</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>194</v>
+        <v>17</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>17</v>
+        <v>223</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>17</v>
+        <v>224</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>17</v>
+        <v>226</v>
       </c>
       <c r="AP18" t="s" s="2">
         <v>17</v>
@@ -4183,10 +3980,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4194,10 +3991,10 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>17</v>
@@ -4206,23 +4003,21 @@
         <v>17</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>17</v>
       </c>
@@ -4270,19 +4065,19 @@
         <v>17</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>17</v>
@@ -4291,13 +4086,13 @@
         <v>17</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>17</v>
+        <v>226</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>17</v>
@@ -4305,21 +4100,21 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>17</v>
+        <v>234</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>17</v>
@@ -4328,19 +4123,23 @@
         <v>17</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>201</v>
+        <v>235</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>202</v>
+        <v>236</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>17</v>
       </c>
@@ -4388,34 +4187,34 @@
         <v>17</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>204</v>
+        <v>233</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>17</v>
+        <v>240</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>17</v>
+        <v>241</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>205</v>
+        <v>242</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>17</v>
+        <v>243</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>17</v>
@@ -4423,21 +4222,21 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>133</v>
+        <v>245</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>17</v>
@@ -4446,21 +4245,23 @@
         <v>17</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>134</v>
+        <v>246</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>135</v>
+        <v>247</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>208</v>
+        <v>248</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O21" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>17</v>
       </c>
@@ -4496,46 +4297,46 @@
         <v>17</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>209</v>
+        <v>17</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>210</v>
+        <v>17</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>194</v>
+        <v>17</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>211</v>
+        <v>244</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>17</v>
+        <v>251</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>17</v>
+        <v>252</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>205</v>
+        <v>253</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>17</v>
+        <v>254</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>17</v>
@@ -4543,10 +4344,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4554,10 +4355,10 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>17</v>
@@ -4566,23 +4367,21 @@
         <v>17</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>102</v>
+        <v>256</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>231</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>17</v>
       </c>
@@ -4591,7 +4390,7 @@
         <v>17</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>232</v>
+        <v>17</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>17</v>
@@ -4630,19 +4429,19 @@
         <v>17</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>17</v>
@@ -4651,24 +4450,24 @@
         <v>17</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>17</v>
+        <v>262</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4676,33 +4475,33 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>17</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>201</v>
+        <v>264</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="O23" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>17</v>
       </c>
@@ -4750,45 +4549,45 @@
         <v>17</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>17</v>
+        <v>268</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>17</v>
+        <v>271</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4796,32 +4595,34 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>17</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>108</v>
+        <v>187</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="O24" t="s" s="2">
-        <v>248</v>
+        <v>276</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>17</v>
@@ -4831,7 +4632,7 @@
         <v>17</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>198</v>
+        <v>17</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>17</v>
@@ -4846,13 +4647,11 @@
         <v>17</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>17</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
-        <v>17</v>
+        <v>277</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>17</v>
@@ -4870,45 +4669,45 @@
         <v>17</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>17</v>
+        <v>278</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>17</v>
+        <v>279</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>17</v>
+        <v>282</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4916,10 +4715,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>17</v>
@@ -4928,20 +4727,22 @@
         <v>17</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="O25" t="s" s="2">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>17</v>
@@ -4966,13 +4767,13 @@
         <v>17</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>17</v>
+        <v>288</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>17</v>
+        <v>289</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>17</v>
+        <v>290</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>17</v>
@@ -4990,19 +4791,19 @@
         <v>17</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>17</v>
+        <v>291</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>17</v>
@@ -5011,10 +4812,10 @@
         <v>17</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>258</v>
+        <v>132</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>17</v>
@@ -5025,21 +4826,21 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>260</v>
+        <v>293</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>261</v>
+        <v>293</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>17</v>
+        <v>294</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>17</v>
@@ -5048,22 +4849,22 @@
         <v>17</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>262</v>
+        <v>187</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>265</v>
+        <v>297</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>266</v>
+        <v>298</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>17</v>
@@ -5088,13 +4889,13 @@
         <v>17</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>17</v>
+        <v>288</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>17</v>
+        <v>299</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>17</v>
+        <v>300</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>17</v>
@@ -5112,45 +4913,45 @@
         <v>17</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>17</v>
+        <v>301</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>268</v>
+        <v>302</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>269</v>
+        <v>303</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>17</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>270</v>
+        <v>305</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>271</v>
+        <v>305</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5158,10 +4959,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>17</v>
@@ -5170,22 +4971,22 @@
         <v>17</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>201</v>
+        <v>306</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>274</v>
+        <v>309</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>17</v>
@@ -5234,19 +5035,19 @@
         <v>17</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>17</v>
@@ -5255,10 +5056,10 @@
         <v>17</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>277</v>
+        <v>311</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>278</v>
+        <v>312</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>17</v>
@@ -5269,21 +5070,21 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>279</v>
+        <v>313</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>279</v>
+        <v>313</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>280</v>
+        <v>17</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>17</v>
@@ -5292,23 +5093,21 @@
         <v>17</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>282</v>
+        <v>315</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>17</v>
       </c>
@@ -5317,7 +5116,7 @@
         <v>17</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>285</v>
+        <v>17</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>17</v>
@@ -5332,13 +5131,13 @@
         <v>17</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>286</v>
+        <v>208</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>287</v>
+        <v>317</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>17</v>
@@ -5356,45 +5155,45 @@
         <v>17</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>279</v>
+        <v>313</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>289</v>
+        <v>17</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>291</v>
+        <v>320</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>292</v>
+        <v>321</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>293</v>
+        <v>17</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>294</v>
+        <v>322</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>295</v>
+        <v>323</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>295</v>
+        <v>323</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5402,10 +5201,10 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>17</v>
@@ -5414,22 +5213,22 @@
         <v>17</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>296</v>
+        <v>187</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>297</v>
+        <v>324</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>299</v>
+        <v>326</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>300</v>
+        <v>327</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>17</v>
@@ -5454,13 +5253,13 @@
         <v>17</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>17</v>
+        <v>208</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>17</v>
+        <v>328</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>17</v>
+        <v>329</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>17</v>
@@ -5478,34 +5277,34 @@
         <v>17</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>295</v>
+        <v>323</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>301</v>
+        <v>17</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>302</v>
+        <v>330</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>303</v>
+        <v>331</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>304</v>
+        <v>17</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>17</v>
@@ -5513,10 +5312,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>305</v>
+        <v>332</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>305</v>
+        <v>332</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5524,10 +5323,10 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>17</v>
@@ -5536,19 +5335,19 @@
         <v>17</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>306</v>
+        <v>333</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>307</v>
+        <v>334</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>308</v>
+        <v>335</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>309</v>
+        <v>336</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5598,56 +5397,56 @@
         <v>17</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>305</v>
+        <v>332</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>17</v>
+        <v>337</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>291</v>
+        <v>338</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>310</v>
+        <v>339</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>304</v>
+        <v>17</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>17</v>
+        <v>340</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>311</v>
+        <v>341</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>311</v>
+        <v>341</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>312</v>
+        <v>17</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>17</v>
@@ -5656,23 +5455,21 @@
         <v>17</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>313</v>
+        <v>342</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>314</v>
+        <v>343</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>317</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>17</v>
       </c>
@@ -5720,56 +5517,56 @@
         <v>17</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>311</v>
+        <v>341</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>318</v>
+        <v>17</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>17</v>
+        <v>346</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>319</v>
+        <v>347</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>320</v>
+        <v>348</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>321</v>
+        <v>17</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>17</v>
+        <v>349</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>322</v>
+        <v>350</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>322</v>
+        <v>350</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>323</v>
+        <v>17</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>17</v>
@@ -5778,22 +5575,22 @@
         <v>17</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>324</v>
+        <v>351</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>325</v>
+        <v>352</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>326</v>
+        <v>353</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>327</v>
+        <v>354</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>328</v>
+        <v>355</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>17</v>
@@ -5842,34 +5639,34 @@
         <v>17</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>322</v>
+        <v>350</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>100</v>
+        <v>356</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>329</v>
+        <v>17</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>330</v>
+        <v>357</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>331</v>
+        <v>358</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>332</v>
+        <v>17</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>17</v>
@@ -5877,10 +5674,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>333</v>
+        <v>359</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>333</v>
+        <v>359</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5888,10 +5685,10 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>17</v>
@@ -5900,20 +5697,18 @@
         <v>17</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>334</v>
+        <v>360</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>335</v>
+        <v>361</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>337</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>17</v>
@@ -5962,19 +5757,19 @@
         <v>17</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>333</v>
+        <v>363</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>17</v>
@@ -5983,58 +5778,58 @@
         <v>17</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>338</v>
+        <v>17</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>339</v>
+        <v>364</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>340</v>
+        <v>17</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>341</v>
+        <v>365</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>341</v>
+        <v>365</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>17</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>342</v>
+        <v>135</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>343</v>
+        <v>136</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" t="s" s="2">
-        <v>345</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>17</v>
       </c>
@@ -6082,80 +5877,80 @@
         <v>17</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>341</v>
+        <v>367</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>346</v>
+        <v>17</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>347</v>
+        <v>17</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>349</v>
+        <v>17</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>350</v>
+        <v>368</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>350</v>
+        <v>368</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>17</v>
+        <v>369</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>186</v>
+        <v>135</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>353</v>
+        <v>138</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>354</v>
+        <v>144</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>17</v>
@@ -6180,11 +5975,13 @@
         <v>17</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="Y35" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>17</v>
+      </c>
       <c r="Z35" t="s" s="2">
-        <v>355</v>
+        <v>17</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>17</v>
@@ -6202,45 +5999,45 @@
         <v>17</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>350</v>
+        <v>372</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>356</v>
+        <v>17</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>357</v>
+        <v>17</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>358</v>
+        <v>17</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>359</v>
+        <v>132</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>360</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6248,10 +6045,10 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>17</v>
@@ -6263,20 +6060,16 @@
         <v>17</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>186</v>
+        <v>374</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>365</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>17</v>
       </c>
@@ -6300,13 +6093,13 @@
         <v>17</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>366</v>
+        <v>17</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>367</v>
+        <v>17</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>368</v>
+        <v>17</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>17</v>
@@ -6324,19 +6117,19 @@
         <v>17</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>17</v>
@@ -6345,10 +6138,10 @@
         <v>17</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>131</v>
+        <v>378</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>17</v>
@@ -6359,21 +6152,21 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>372</v>
+        <v>17</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>17</v>
@@ -6385,20 +6178,16 @@
         <v>17</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>186</v>
+        <v>374</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>376</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>17</v>
       </c>
@@ -6422,69 +6211,69 @@
         <v>17</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>366</v>
+        <v>17</v>
       </c>
       <c r="Y37" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI37" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="Z37" t="s" s="2">
+      <c r="AJ37" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="AA37" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>380</v>
-      </c>
       <c r="AN37" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>382</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6492,10 +6281,10 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>17</v>
@@ -6507,7 +6296,7 @@
         <v>17</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>384</v>
+        <v>187</v>
       </c>
       <c r="L38" t="s" s="2">
         <v>385</v>
@@ -6544,13 +6333,13 @@
         <v>17</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>17</v>
+        <v>389</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>17</v>
+        <v>390</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>17</v>
@@ -6568,31 +6357,31 @@
         <v>17</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>17</v>
+        <v>391</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>390</v>
+        <v>303</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>17</v>
@@ -6603,10 +6392,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6614,10 +6403,10 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>17</v>
@@ -6629,18 +6418,20 @@
         <v>17</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="O39" s="2"/>
+        <v>396</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>397</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>17</v>
       </c>
@@ -6664,13 +6455,13 @@
         <v>17</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>286</v>
+        <v>208</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>17</v>
@@ -6688,45 +6479,45 @@
         <v>17</v>
       </c>
       <c r="AF39" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="AG39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>397</v>
-      </c>
       <c r="AM39" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>399</v>
+        <v>303</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>400</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6734,10 +6525,10 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>17</v>
@@ -6749,7 +6540,7 @@
         <v>17</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>186</v>
+        <v>401</v>
       </c>
       <c r="L40" t="s" s="2">
         <v>402</v>
@@ -6757,11 +6548,9 @@
       <c r="M40" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="N40" t="s" s="2">
+      <c r="N40" s="2"/>
+      <c r="O40" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>17</v>
@@ -6786,13 +6575,13 @@
         <v>17</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>286</v>
+        <v>17</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>406</v>
+        <v>17</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>407</v>
+        <v>17</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>17</v>
@@ -6810,19 +6599,19 @@
         <v>17</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>17</v>
@@ -6831,10 +6620,10 @@
         <v>17</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>408</v>
+        <v>17</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>17</v>
@@ -6845,10 +6634,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6856,10 +6645,10 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>17</v>
@@ -6871,17 +6660,15 @@
         <v>17</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>411</v>
+        <v>360</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>414</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>17</v>
@@ -6930,45 +6717,45 @@
         <v>17</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>415</v>
+        <v>17</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>416</v>
+        <v>378</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>418</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6976,10 +6763,10 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>17</v>
@@ -6988,19 +6775,19 @@
         <v>17</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7050,45 +6837,45 @@
         <v>17</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>424</v>
+        <v>17</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>427</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7096,10 +6883,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>17</v>
@@ -7108,23 +6895,21 @@
         <v>17</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>433</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>17</v>
       </c>
@@ -7172,19 +6957,19 @@
         <v>17</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>434</v>
+        <v>101</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>17</v>
@@ -7193,10 +6978,10 @@
         <v>17</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>435</v>
+        <v>415</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>17</v>
@@ -7207,10 +6992,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7218,10 +7003,10 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>17</v>
@@ -7230,19 +7015,23 @@
         <v>17</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>202</v>
+        <v>424</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>17</v>
       </c>
@@ -7290,19 +7079,19 @@
         <v>17</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>204</v>
+        <v>423</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>17</v>
@@ -7311,10 +7100,10 @@
         <v>17</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>17</v>
+        <v>428</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>205</v>
+        <v>429</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>17</v>
@@ -7325,21 +7114,21 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>133</v>
+        <v>17</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>17</v>
@@ -7351,17 +7140,15 @@
         <v>17</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>134</v>
+        <v>360</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>135</v>
+        <v>361</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>17</v>
@@ -7410,19 +7197,19 @@
         <v>17</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>211</v>
+        <v>363</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>139</v>
+        <v>17</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>17</v>
@@ -7434,7 +7221,7 @@
         <v>17</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>205</v>
+        <v>364</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>17</v>
@@ -7445,46 +7232,44 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>440</v>
+        <v>134</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>441</v>
+        <v>136</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>442</v>
+        <v>366</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>17</v>
       </c>
@@ -7532,19 +7317,19 @@
         <v>17</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>443</v>
+        <v>367</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>17</v>
@@ -7556,7 +7341,7 @@
         <v>17</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>131</v>
+        <v>364</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>17</v>
@@ -7567,42 +7352,46 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>17</v>
+        <v>369</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>445</v>
+        <v>135</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>446</v>
+        <v>370</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
+        <v>371</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>17</v>
       </c>
@@ -7650,19 +7439,19 @@
         <v>17</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>444</v>
+        <v>372</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>448</v>
+        <v>17</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>17</v>
@@ -7671,10 +7460,10 @@
         <v>17</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>449</v>
+        <v>17</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>450</v>
+        <v>132</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>17</v>
@@ -7685,10 +7474,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7696,10 +7485,10 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>17</v>
@@ -7708,19 +7497,23 @@
         <v>17</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>445</v>
+        <v>187</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+        <v>435</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>17</v>
       </c>
@@ -7744,13 +7537,13 @@
         <v>17</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>17</v>
+        <v>208</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>17</v>
+        <v>209</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>17</v>
+        <v>210</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>17</v>
@@ -7768,34 +7561,34 @@
         <v>17</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>448</v>
+        <v>17</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>17</v>
+        <v>437</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>449</v>
+        <v>213</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>454</v>
+        <v>214</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>17</v>
+        <v>215</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>17</v>
@@ -7803,10 +7596,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7814,10 +7607,10 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>17</v>
@@ -7826,22 +7619,22 @@
         <v>17</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>186</v>
+        <v>439</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>457</v>
+        <v>274</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>458</v>
+        <v>441</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>459</v>
+        <v>276</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>17</v>
@@ -7866,13 +7659,13 @@
         <v>17</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>460</v>
+        <v>17</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>461</v>
+        <v>17</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>17</v>
@@ -7890,45 +7683,45 @@
         <v>17</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>462</v>
+        <v>442</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>463</v>
+        <v>280</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>381</v>
+        <v>281</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>17</v>
+        <v>282</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>464</v>
+        <v>443</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>464</v>
+        <v>443</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7936,10 +7729,10 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>17</v>
@@ -7951,19 +7744,19 @@
         <v>17</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>465</v>
+        <v>444</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>466</v>
+        <v>445</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>467</v>
+        <v>446</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>468</v>
+        <v>287</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>17</v>
@@ -7988,13 +7781,13 @@
         <v>17</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>469</v>
+        <v>289</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>470</v>
+        <v>290</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>17</v>
@@ -8012,31 +7805,31 @@
         <v>17</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>464</v>
+        <v>443</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>17</v>
+        <v>291</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>462</v>
+        <v>17</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>463</v>
+        <v>132</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>381</v>
+        <v>292</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>17</v>
@@ -8047,21 +7840,21 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>471</v>
+        <v>447</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>471</v>
+        <v>447</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>17</v>
+        <v>294</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>17</v>
@@ -8073,17 +7866,19 @@
         <v>17</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>472</v>
+        <v>187</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>473</v>
+        <v>295</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="O51" t="s" s="2">
-        <v>475</v>
+        <v>298</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>17</v>
@@ -8108,13 +7903,13 @@
         <v>17</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>17</v>
+        <v>288</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>17</v>
+        <v>299</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>17</v>
+        <v>300</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>17</v>
@@ -8132,45 +7927,45 @@
         <v>17</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>471</v>
+        <v>447</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>17</v>
+        <v>301</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>17</v>
+        <v>302</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>476</v>
+        <v>303</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>17</v>
+        <v>304</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>477</v>
+        <v>448</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>477</v>
+        <v>448</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8178,10 +7973,10 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>17</v>
@@ -8193,16 +7988,20 @@
         <v>17</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>201</v>
+        <v>79</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>478</v>
+        <v>449</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+        <v>450</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>17</v>
       </c>
@@ -8250,19 +8049,19 @@
         <v>17</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>477</v>
+        <v>448</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>17</v>
@@ -8271,1352 +8070,20 @@
         <v>17</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>449</v>
+        <v>357</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>480</v>
+        <v>358</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="53" hidden="true">
-      <c r="A53" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="C53" s="2"/>
-      <c r="D53" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="E53" s="2"/>
-      <c r="F53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="O53" s="2"/>
-      <c r="P53" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="Q53" s="2"/>
-      <c r="R53" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AP53" t="s" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="54" hidden="true">
-      <c r="A54" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="E54" s="2"/>
-      <c r="F54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="O54" s="2"/>
-      <c r="P54" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="Q54" s="2"/>
-      <c r="R54" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AP54" t="s" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55" hidden="true">
-      <c r="A55" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="D55" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="E55" s="2"/>
-      <c r="F55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="P55" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="Q55" s="2"/>
-      <c r="R55" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AP55" t="s" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="56" hidden="true">
-      <c r="A56" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="E56" s="2"/>
-      <c r="F56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
-      <c r="P56" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="Q56" s="2"/>
-      <c r="R56" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AO56" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AP56" t="s" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="57" hidden="true">
-      <c r="A57" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="E57" s="2"/>
-      <c r="F57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O57" s="2"/>
-      <c r="P57" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="Q57" s="2"/>
-      <c r="R57" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AO57" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AP57" t="s" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="58" hidden="true">
-      <c r="A58" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="E58" s="2"/>
-      <c r="F58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="P58" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="Q58" s="2"/>
-      <c r="R58" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AP58" t="s" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="59" hidden="true">
-      <c r="A59" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="E59" s="2"/>
-      <c r="F59" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="P59" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="Q59" s="2"/>
-      <c r="R59" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="AP59" t="s" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="60" hidden="true">
-      <c r="A60" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="E60" s="2"/>
-      <c r="F60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="P60" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="Q60" s="2"/>
-      <c r="R60" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AP60" t="s" s="2">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="61" hidden="true">
-      <c r="A61" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="E61" s="2"/>
-      <c r="F61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="P61" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="Q61" s="2"/>
-      <c r="R61" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="S61" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AP61" t="s" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="62" hidden="true">
-      <c r="A62" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="E62" s="2"/>
-      <c r="F62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="P62" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="Q62" s="2"/>
-      <c r="R62" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AP62" t="s" s="2">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="63" hidden="true">
-      <c r="A63" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="C63" s="2"/>
-      <c r="D63" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="E63" s="2"/>
-      <c r="F63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="P63" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="Q63" s="2"/>
-      <c r="R63" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AP63" t="s" s="2">
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP63">
+  <autoFilter ref="A1:AP52">
     <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9626,7 +8093,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI62">
+  <conditionalFormatting sqref="A2:AI51">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/temp/pages/StructureDefinition-onc-skintone-observation.xlsx
+++ b/temp/pages/StructureDefinition-onc-skintone-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T14:13:58+00:00</t>
+    <t>2025-12-26T15:22:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-onc-skintone-observation.xlsx
+++ b/temp/pages/StructureDefinition-onc-skintone-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T15:22:58+00:00</t>
+    <t>2026-01-01T13:37:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
